--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94F3DD-EB75-4EF6-A9D5-4FA838B42F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CD6927-3D41-4517-86FC-A65D0454433F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12440" yWindow="3690" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="3360" windowWidth="23260" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,12 +75,6 @@
     <t>MR/V011235/1 Programme Grant</t>
   </si>
   <si>
-    <t xml:space="preserve">“Macrophages in type 2 immunity: unravelling susceptibility and resistance to tissue nematode infection”. Funded, 2.26 million GBP. Co-wrote grant and provided scientific design and preliminary data. I was awarded an honorary research fellow position at UoM to facilitate ongoing involvement in this project when I left Manchester to return to Ireland. </t>
-  </si>
-  <si>
-    <t>2.26 Million GBP Co-investigator</t>
-  </si>
-  <si>
     <t>Medical Research Council</t>
   </si>
   <si>
@@ -105,6 +99,12 @@
   </si>
   <si>
     <t xml:space="preserve">Co-Applicant as scientific lead with Jennifer Scott (TCD, ICAT fellow) as medical lead. ‘Nanoparticle modulation of neutrophil and monocyte responses to ANCA’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Macrophages in type 2 immunity: unravelling susceptibility and resistance to tissue nematode infection”. Funded, 2.26 million GBP. Co-wrote grant and provided scientific design and all preliminary data. I was awarded an honorary research fellow position at UoM to facilitate ongoing involvement in this project when I left Manchester to return to Ireland. </t>
+  </si>
+  <si>
+    <t>2.26 Million GBP Co-investigator (2 applicants)</t>
   </si>
 </sst>
 </file>
@@ -516,33 +516,33 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5">
         <v>2021</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CD6927-3D41-4517-86FC-A65D0454433F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503083C5-A4D8-4641-B43D-0D28820DCAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="3360" windowWidth="23260" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22275" yWindow="4530" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t xml:space="preserve">Co-Applicant as scientific lead with Jennifer Scott (TCD, ICAT fellow) as medical lead. ‘Nanoparticle modulation of neutrophil and monocyte responses to ANCA’ </t>
   </si>
   <si>
-    <t xml:space="preserve">“Macrophages in type 2 immunity: unravelling susceptibility and resistance to tissue nematode infection”. Funded, 2.26 million GBP. Co-wrote grant and provided scientific design and all preliminary data. I was awarded an honorary research fellow position at UoM to facilitate ongoing involvement in this project when I left Manchester to return to Ireland. </t>
-  </si>
-  <si>
     <t>2.26 Million GBP Co-investigator (2 applicants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Macrophages in type 2 immunity: unravelling susceptibility and resistance to tissue nematode infection”. I co-wrote grant and provided scientific design and all preliminary data. I was awarded an honorary research fellow position at UoM to facilitate ongoing involvement in this project when I left Manchester to return to Ireland. </t>
   </si>
 </sst>
 </file>
@@ -449,18 +449,18 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.90625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="28.08984375" customWidth="1"/>
-    <col min="5" max="5" width="54.08984375" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -494,7 +494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -511,12 +511,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -525,10 +525,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>

--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503083C5-A4D8-4641-B43D-0D28820DCAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6727DBBD-324B-485E-A047-0290641A9D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22275" yWindow="4530" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11530" yWindow="600" windowWidth="20340" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>with</t>
   </si>
@@ -95,23 +95,26 @@
     <t>Internal TCD</t>
   </si>
   <si>
-    <t>10K Eur, Co-applicant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co-Applicant as scientific lead with Jennifer Scott (TCD, ICAT fellow) as medical lead. ‘Nanoparticle modulation of neutrophil and monocyte responses to ANCA’ </t>
-  </si>
-  <si>
-    <t>2.26 Million GBP Co-investigator (2 applicants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Macrophages in type 2 immunity: unravelling susceptibility and resistance to tissue nematode infection”. I co-wrote grant and provided scientific design and all preliminary data. I was awarded an honorary research fellow position at UoM to facilitate ongoing involvement in this project when I left Manchester to return to Ireland. </t>
+    <t>10K Eur, Co-PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘Nanoparticle modulation of neutrophil and monocyte responses to ANCA’ </t>
+  </si>
+  <si>
+    <t>2.26 Million GBP, Research Co-Investigator</t>
+  </si>
+  <si>
+    <t>“Macrophages in type 2 immunity: unravelling susceptibility and resistance to tissue nematode infection”. I co-wrote grant and provided scientific design and preliminary data. Awarded an honorary position at UoM to facilitate ongoing collaboration after leaving Manchester</t>
+  </si>
+  <si>
+    <t>Understanding mast cells and their progenitors in Telangiectasia Macularis Eruptiva Perstans (TMEP)' </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +141,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,13 +169,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,21 +457,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="54.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
+    <col min="5" max="5" width="54.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -494,7 +505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -511,7 +522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -528,7 +539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -543,9 +554,27 @@
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6727DBBD-324B-485E-A047-0290641A9D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB56B47-E4FA-FF40-96DC-C5695A807AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11530" yWindow="600" windowWidth="20340" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="820" windowWidth="20340" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_Hlk110864949" localSheetId="0">Sheet1!$E$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>with</t>
   </si>
@@ -108,13 +122,169 @@
   </si>
   <si>
     <t>Understanding mast cells and their progenitors in Telangiectasia Macularis Eruptiva Perstans (TMEP)' </t>
+  </si>
+  <si>
+    <t>Dean’s Research Initiatives Fund</t>
+  </si>
+  <si>
+    <t>Faculty of Health Sciences, TCD</t>
+  </si>
+  <si>
+    <t>20K, PI</t>
+  </si>
+  <si>
+    <t>84K</t>
+  </si>
+  <si>
+    <t>Legend Biotech</t>
+  </si>
+  <si>
+    <t>Enterprise Ireland-funded Industry collaboration</t>
+  </si>
+  <si>
+    <t>Mapping human macrophage anti-microbial function in pleural infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFI-Pathways Programme </t>
+  </si>
+  <si>
+    <t>457K, PI</t>
+  </si>
+  <si>
+    <t>2024-2028</t>
+  </si>
+  <si>
+    <t>Science Foundation Ireland</t>
+  </si>
+  <si>
+    <r>
+      <t>Mac</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rophage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ctivation and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ransition in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">utoimmune </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">idney (MacATAK): </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uncovering functional outcomes of macrophage differentiation in the inflamed kidney</t>
+    </r>
+  </si>
+  <si>
+    <t>Title withheld, scRNA-sequencing of blood cancer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +318,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -177,6 +379,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,21 +663,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="28.1796875" customWidth="1"/>
-    <col min="5" max="5" width="54.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="5" max="5" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -505,7 +711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -522,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -539,7 +745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -556,7 +762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -571,6 +777,57 @@
       </c>
       <c r="E6" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>2024</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>2024</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB56B47-E4FA-FF40-96DC-C5695A807AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13719F54-B1EB-BB4F-8B4D-A89D49D73893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2840" yWindow="820" windowWidth="20340" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>with</t>
   </si>
@@ -279,12 +279,39 @@
   <si>
     <t>Title withheld, scRNA-sequencing of blood cancer</t>
   </si>
+  <si>
+    <t>Trinity Doctorate Award</t>
+  </si>
+  <si>
+    <t>122K, PI</t>
+  </si>
+  <si>
+    <t>Trinity Doctorate Award 2024-2025, PI-led application</t>
+  </si>
+  <si>
+    <t>Mapping Macrophage Cell State Transition in Inflammation and Infection at Single Cell Resolution</t>
+  </si>
+  <si>
+    <t>30.2K, PI</t>
+  </si>
+  <si>
+    <t>Higher Education Research Equipment Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higher Education Authority </t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>Cell counting solution to support TCD Omics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +373,25 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF494949"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -383,6 +429,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,6 +881,40 @@
         <v>35</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13719F54-B1EB-BB4F-8B4D-A89D49D73893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6203F0F0-A960-1048-ACEF-CB9099794CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="820" windowWidth="20340" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2820" windowWidth="24360" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>with</t>
   </si>
@@ -306,12 +306,27 @@
   <si>
     <t>Cell counting solution to support TCD Omics</t>
   </si>
+  <si>
+    <t>2024-2026</t>
+  </si>
+  <si>
+    <t>‘Characterisation and Inhibition of Monocyte-Driven Inflammation in AAV (CIMDIA)’</t>
+  </si>
+  <si>
+    <t>The Meath Foundation</t>
+  </si>
+  <si>
+    <t>The Meath Foundation 2024</t>
+  </si>
+  <si>
+    <t>70K, Co-I (35K to my group)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +410,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -417,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -434,6 +462,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,16 +744,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="28.1640625" customWidth="1"/>
     <col min="5" max="5" width="54.1640625" customWidth="1"/>
   </cols>
@@ -915,6 +945,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6203F0F0-A960-1048-ACEF-CB9099794CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D978A085-B9DC-6D40-828D-E80D5F887901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2820" windowWidth="24360" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="920" windowWidth="24360" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>20K, PI</t>
   </si>
   <si>
-    <t>84K</t>
-  </si>
-  <si>
     <t>Legend Biotech</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>70K, Co-I (35K to my group)</t>
+  </si>
+  <si>
+    <t>93K</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -874,92 +874,92 @@
         <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>2024</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
       <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D978A085-B9DC-6D40-828D-E80D5F887901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D26B3B-CB6A-BA47-9D8D-A26D0E6415E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="920" windowWidth="24360" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="840" windowWidth="24360" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t xml:space="preserve">SFI-Pathways Programme </t>
   </si>
   <si>
-    <t>457K, PI</t>
-  </si>
-  <si>
     <t>2024-2028</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>93K</t>
+  </si>
+  <si>
+    <t>594K, PI</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -882,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>2024</v>
@@ -891,7 +891,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -899,67 +899,67 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
       <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
